--- a/TP4.1/Classeur.xlsx
+++ b/TP4.1/Classeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33783\Desktop\ECOLE\POLYTECH\ME\Semestre 6\TPS\TP4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC10C3-7B87-4308-8618-93EC5A24E9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F77F17-7D09-4BFA-9AC1-627DC44945B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A94ADF8C-A761-4ACC-B33F-9F7880E1AF8A}"/>
+    <workbookView xWindow="5205" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{A94ADF8C-A761-4ACC-B33F-9F7880E1AF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2833,16 +2833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>815340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3189,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17277670-0919-4BA7-B206-9F82F30E6A69}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/TP4.1/Classeur.xlsx
+++ b/TP4.1/Classeur.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33783\Desktop\ECOLE\POLYTECH\ME\Semestre 6\TPS\TP4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F77F17-7D09-4BFA-9AC1-627DC44945B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C61D5-6BFC-4CC8-8D3A-00BC36DB58D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{A94ADF8C-A761-4ACC-B33F-9F7880E1AF8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A94ADF8C-A761-4ACC-B33F-9F7880E1AF8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,6 +126,1093 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Température en fonction de la position</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Température en fonction de la position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$24:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$24:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duralumin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7081583552055994E-2"/>
+                  <c:y val="7.3598716827063287E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$24:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cuivre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2867169460674557E-2"/>
+                  <c:y val="-7.366257896962089E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$29:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Duralumin (65V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7117314952944488E-2"/>
+                  <c:y val="0.11844495713207176"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Cuivre (65V)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2004880787860154E-2"/>
+                  <c:y val="6.6539124543219377E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-466A-4941-B3FF-16D2A7E0C1DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175437776"/>
+        <c:axId val="175434416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175437776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175434416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Température (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175437776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -905,782 +1993,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Température en fonction de la position</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Température en fonction de la position</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$C$24:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.315</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$24:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>93.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2450-40F4-9A63-767F04542D82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Duralumin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.7081583552055994E-2"/>
-                  <c:y val="7.3598716827063287E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$C$24:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$24:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>93.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2450-40F4-9A63-767F04542D82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Cuivre</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.1528871391076115E-2"/>
-                  <c:y val="3.5935768445610965E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$C$29:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.315</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$B$29:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2450-40F4-9A63-767F04542D82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="175437776"/>
-        <c:axId val="175434416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="175437776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Distance (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="175434416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="175434416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Température (°C)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="175437776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2793,7 +3105,51 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7771BCC0-28E5-4F14-A0E3-A508AF912A9B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9287435" cy="6069106"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E3E6FD-82C2-A539-C3A7-FF1924708682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2826,42 +3182,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC6E008-A6D0-8226-DA63-1C6EA7783AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3189,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17277670-0919-4BA7-B206-9F82F30E6A69}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
